--- a/数据整理/stocks/A股/创业板/300815-玉禾田.xlsx
+++ b/数据整理/stocks/A股/创业板/300815-玉禾田.xlsx
@@ -451,351 +451,471 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9696</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3292</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>162720</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>广发创业板两年定期开放混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>41.21</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.88</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2569</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160607</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华价值优势混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2166</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>206002</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华精选成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>501030</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>汇添富中证环境治理指数（LOF）A</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>93.71</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1.99</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501031</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>164908</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009230</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华安和混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>34.97</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1.11</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009231</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华安和混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>34.97</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007549</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中泰开阳价值优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>88.75</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011437</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中泰开阳价值优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>88.75</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006976</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华核心优势混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>89.18</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -805,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,15 +946,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -846,26 +976,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004119</t>
+          <t>009362</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发创新驱动灵活配置混合</t>
+          <t>招商丰盈积极配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>34.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7214</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -874,25 +1014,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007040</t>
+          <t>007549</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>新疆前海联合泳隆灵活配置混合C</t>
+          <t>中泰开阳价值优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6543</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007549</t>
+          <t>008704</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中泰开阳价值优选灵活配置混合A</t>
+          <t>广发高股息优享混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.51</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5231</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011437</t>
+          <t>009363</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中泰开阳价值优选灵活配置混合C</t>
+          <t>招商丰盈积极配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>85.51</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4123</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -968,15 +1138,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>85.52</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.02</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3527</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>217010</t>
+          <t>162720</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商大盘蓝筹混合</t>
+          <t>广发创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>84.55</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>77.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3520</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006976</t>
+          <t>009695</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华核心优势混合</t>
+          <t>招商成长精选一年定期开放混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>11.39</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3337</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002249</t>
+          <t>217010</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商境远灵活配置混合</t>
+          <t>招商大盘蓝筹混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>86.98</t>
+          <t>11.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3017</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008704</t>
+          <t>003165</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发高股息优享混合A</t>
+          <t>鹏华弘嘉灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.97</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008705</t>
+          <t>002249</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发高股息优享混合C</t>
+          <t>招商境远灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.97</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005416</t>
+          <t>004119</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
+          <t>广发创新驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>37.25</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005417</t>
+          <t>008705</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
+          <t>广发高股息优享混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>37.25</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>003165</t>
+          <t>011437</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
+          <t>中泰开阳价值优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>003166</t>
+          <t>006976</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
+          <t>鹏华核心优势混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009667</t>
+          <t>009230</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鹏华安庆混合A</t>
+          <t>鹏华安和混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>36.07</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1266,25 +1546,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009668</t>
+          <t>009696</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鹏华安庆混合C</t>
+          <t>招商成长精选一年定期开放混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>36.07</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1294,25 +1584,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009695</t>
+          <t>009667</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>招商成长精选一年定期开放混合A</t>
+          <t>鹏华安庆混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>86.65</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009696</t>
+          <t>005416</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>招商成长精选一年定期开放混合C</t>
+          <t>鹏华尊惠18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>86.65</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
+          <t>37.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1350,25 +1660,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009230</t>
+          <t>009231</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鹏华安和混合A</t>
+          <t>鹏华安和混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>33.29</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1.23</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009231</t>
+          <t>005417</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鹏华安和混合C</t>
+          <t>鹏华尊惠18个月定期开放混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>33.29</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
+          <t>37.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009362</t>
+          <t>009668</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>招商丰盈积极配置混合A</t>
+          <t>鹏华安庆混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>88.74</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009363</t>
+          <t>003166</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>招商丰盈积极配置混合C</t>
+          <t>鹏华弘嘉灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>88.74</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1462,25 +1812,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>162720</t>
+          <t>007040</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>广发创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>77.19</t>
-        </is>
-      </c>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300815-玉禾田.xlsx
+++ b/数据整理/stocks/A股/创业板/300815-玉禾田.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1820,7 +1821,6 @@
           <t>新疆前海联合泳隆灵活配置混合C</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>87.00</t>
@@ -1836,6 +1836,290 @@
       </c>
       <c r="H24" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0482</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4991</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2527</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2511</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1854</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300815-玉禾田.xlsx
+++ b/数据整理/stocks/A股/创业板/300815-玉禾田.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2125,4 +2126,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1095</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5510</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3191</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2675</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2598</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2169</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300815-玉禾田.xlsx
+++ b/数据整理/stocks/A股/创业板/300815-玉禾田.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2448,4 +2449,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300815-玉禾田.xlsx
+++ b/数据整理/stocks/A股/创业板/300815-玉禾田.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2457,7 +2458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2468,17 +2469,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2488,14 +2509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4143</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.85</v>
       </c>
     </row>
     <row r="3">
@@ -2504,14 +2547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.35</v>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3945</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2520,14 +2585,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.85</v>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2646</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2536,13 +2623,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2157</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300815-玉禾田.xlsx
+++ b/数据整理/stocks/A股/创业板/300815-玉禾田.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2704,7 +2705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2715,17 +2716,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2735,14 +2756,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.38</v>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8684</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2751,14 +2794,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.85</v>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2182</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2767,14 +2832,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.35</v>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2783,14 +2870,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>5.85</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="6">
@@ -2799,13 +3008,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300815-玉禾田.xlsx
+++ b/数据整理/stocks/A股/创业板/300815-玉禾田.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,37 +467,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -507,36 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160607</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华价值优势混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>22.76</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9696</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="3">
@@ -545,36 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>206002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华精选成长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.80</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3292</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.38</v>
       </c>
     </row>
     <row r="4">
@@ -583,36 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>162720</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>41.21</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2569</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.85</v>
       </c>
     </row>
     <row r="5">
@@ -621,36 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007549</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中泰开阳价值优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.75</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2166</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.35</v>
       </c>
     </row>
     <row r="6">
@@ -659,36 +551,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006976</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华核心优势混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.18</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0963</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.85</v>
       </c>
     </row>
     <row r="7">
@@ -697,226 +567,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009230</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华安和混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>34.97</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0837</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011437</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中泰开阳价值优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.75</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0773</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501031</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0730</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501030</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0490</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>164908</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0314</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009231</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华安和混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>34.97</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0155</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.2</v>
       </c>
     </row>
   </sheetData>
@@ -930,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -951,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -991,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.36</t>
+          <t>21.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.74</t>
+          <t>87.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7214</t>
+          <t>0.8684</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1019,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007549</t>
+          <t>008704</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中泰开阳价值优选灵活配置混合A</t>
+          <t>广发高股息优享混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.19</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.51</t>
+          <t>94.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6543</t>
+          <t>0.2182</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1057,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008704</t>
+          <t>009363</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发高股息优享混合A</t>
+          <t>招商丰盈积极配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.97</t>
+          <t>87.04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5231</t>
+          <t>0.1661</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1095,751 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009363</t>
+          <t>008705</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商丰盈积极配置混合C</t>
+          <t>广发高股息优享混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.74</t>
+          <t>94.09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4123</t>
+          <t>0.0508</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
         <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>217009</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商核心价值混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.68</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.52</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3527</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>162720</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.42</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>77.19</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3520</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009695</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商成长精选一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>11.39</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>86.65</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3337</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>217010</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商大盘蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>11.01</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>84.55</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3017</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003165</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1766</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002249</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>招商境远灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>86.98</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1697</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004119</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>广发创新驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>87.00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1434</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008705</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>广发高股息优享混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.97</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1375</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011437</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中泰开阳价值优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>85.51</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1054</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006976</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏华核心优势混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1037</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009230</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏华安和混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>33.29</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0892</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009696</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>招商成长精选一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>86.65</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0879</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009667</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>7.53</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>36.07</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0858</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005416</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>37.25</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0546</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009231</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>鹏华安和混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>33.29</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005417</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>37.25</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009668</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>36.07</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>003166</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>007040</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳隆灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>87.00</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1853,7 +796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1874,7 +817,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1914,26 +857,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.28</t>
+          <t>82.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>89.87</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0482</t>
+          <t>3.4143</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1952,26 +895,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.68</t>
+          <t>89.57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4991</t>
+          <t>0.3945</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1980,36 +923,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009363</t>
+          <t>004119</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商丰盈积极配置混合C</t>
+          <t>广发创新驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>87.79</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2527</t>
+          <t>0.2646</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2018,36 +961,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004119</t>
+          <t>009363</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发创新驱动灵活配置混合</t>
+          <t>招商丰盈积极配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>67.11</t>
+          <t>89.87</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2511</t>
+          <t>0.2157</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2066,64 +1009,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>76.68</t>
+          <t>89.57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1854</t>
+          <t>0.0893</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002249</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商境远灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>82.23</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1183</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2459,7 +1364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2480,7 +1385,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2520,26 +1425,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82.47</t>
+          <t>29.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.87</t>
+          <t>90.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.4143</t>
+          <t>1.0482</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2558,26 +1463,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.57</t>
+          <t>76.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3945</t>
+          <t>0.4991</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2586,36 +1491,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004119</t>
+          <t>009363</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发创新驱动灵活配置混合</t>
+          <t>招商丰盈积极配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.79</t>
+          <t>90.31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2646</t>
+          <t>0.2527</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2624,36 +1529,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009363</t>
+          <t>004119</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商丰盈积极配置混合C</t>
+          <t>广发创新驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.87</t>
+          <t>67.11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2157</t>
+          <t>0.2511</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2672,26 +1577,64 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.57</t>
+          <t>76.68</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0893</t>
+          <t>0.1854</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2705,7 +1648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2726,7 +1669,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2766,26 +1709,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.39</t>
+          <t>34.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.04</t>
+          <t>88.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8684</t>
+          <t>1.7214</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2794,36 +1737,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008704</t>
+          <t>007549</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发高股息优享混合A</t>
+          <t>中泰开阳价值优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>85.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2182</t>
+          <t>0.6543</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2832,36 +1775,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009363</t>
+          <t>008704</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商丰盈积极配置混合C</t>
+          <t>广发高股息优享混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.04</t>
+          <t>92.97</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1661</t>
+          <t>0.5231</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2870,36 +1813,751 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4123</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3527</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3520</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3337</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3017</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>008705</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>广发高股息优享混合C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0508</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>37.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>37.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2913,7 +2571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2924,17 +2582,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2944,14 +2622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.3</v>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9696</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2960,14 +2660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.38</v>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3292</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2976,14 +2698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.85</v>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>41.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2569</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2992,14 +2736,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.35</v>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2166</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3008,14 +2774,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>23</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.85</v>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -3024,14 +2812,226 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.2</v>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
